--- a/public/media/excel-import/Plantilla - Importar figuras.xlsx
+++ b/public/media/excel-import/Plantilla - Importar figuras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904FE32D-C538-4DE8-A2A0-AC9D0364C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A487C-1455-4D46-AA99-52A10BED09C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Q-Posket YUJI ITADORI B</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
   </si>
   <si>
     <t>Kimetsu no Yaiba</t>
@@ -91,6 +88,21 @@
   </si>
   <si>
     <t>Dimensiones : 6.5 x 6.75 x 6.3 pulgadas</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KORIQ4zChClzm</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen;juan</t>
+  </si>
+  <si>
+    <t>KORIS5zZjCqzn</t>
   </si>
 </sst>
 </file>
@@ -439,119 +451,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
-        <v>23000</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>70000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/media/excel-import/Plantilla - Importar figuras.xlsx
+++ b/public/media/excel-import/Plantilla - Importar figuras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\korimangastore\public\media\excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A487C-1455-4D46-AA99-52A10BED09C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58E5BA-B887-4990-8484-99163258233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Gachapon</t>
-  </si>
-  <si>
-    <t>Figuarts mini</t>
   </si>
   <si>
     <t>Sucursal galería caracol;kori</t>
@@ -103,13 +100,61 @@
   </si>
   <si>
     <t>KORIS5zZjCqzn</t>
+  </si>
+  <si>
+    <t>Figura de Luffy (One Piece)</t>
+  </si>
+  <si>
+    <t>Versión de la película ONE PIECE STAMPEDE KING OF ARTIST THE MONKEY ・ D ・ LUFFY Todos los tipos 1 (Monkey D. Luffy)</t>
+  </si>
+  <si>
+    <t>Monkey D. Luffy (One Piece DXF THE GRANDLINE MEN ONE PIECE FILM GOLD vol.1 Figure Anime Goods Prize Banpresto)</t>
+  </si>
+  <si>
+    <t>Banpresto One Piece MAXIMATIC EL MONO.D.LUFFY I</t>
+  </si>
+  <si>
+    <t>Hobbies y Juguetes, Figuras ONE PIECE STAMPEDE KING OF ARTIST THE MONKEY D LUFFY</t>
+  </si>
+  <si>
+    <t>Hobbies y Juguetes, Figuras ONE PIECE KING OF ARTIST THE MONKEY D LUFFY- II-</t>
+  </si>
+  <si>
+    <t>Dimensiones : 5.5 x 6.5 x 6.3 pulgadas</t>
+  </si>
+  <si>
+    <t>Dimensiones : 6.5 x 7.5 x 6.3 pulgadas</t>
+  </si>
+  <si>
+    <t>One piece</t>
+  </si>
+  <si>
+    <t>9;3</t>
+  </si>
+  <si>
+    <t>10;50</t>
+  </si>
+  <si>
+    <t>7;9</t>
+  </si>
+  <si>
+    <t>9;6</t>
+  </si>
+  <si>
+    <t>8;5</t>
+  </si>
+  <si>
+    <t>5;5</t>
+  </si>
+  <si>
+    <t>Figura mini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +165,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="&quot;Helvetica LT Std&quot;"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="&quot;Helvetica LT Std&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="&quot;Helvetica LT Std&quot;"/>
     </font>
   </fonts>
@@ -164,13 +218,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,29 +509,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -500,25 +558,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>23000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>8</v>
@@ -526,25 +584,25 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <v>6</v>
@@ -552,29 +610,370 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>70000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/media/excel-import/Plantilla - Importar figuras.xlsx
+++ b/public/media/excel-import/Plantilla - Importar figuras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\korimangastore\public\media\excel-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58E5BA-B887-4990-8484-99163258233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A487C-1455-4D46-AA99-52A10BED09C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Gachapon</t>
+  </si>
+  <si>
+    <t>Figuarts mini</t>
   </si>
   <si>
     <t>Sucursal galería caracol;kori</t>
@@ -100,61 +103,13 @@
   </si>
   <si>
     <t>KORIS5zZjCqzn</t>
-  </si>
-  <si>
-    <t>Figura de Luffy (One Piece)</t>
-  </si>
-  <si>
-    <t>Versión de la película ONE PIECE STAMPEDE KING OF ARTIST THE MONKEY ・ D ・ LUFFY Todos los tipos 1 (Monkey D. Luffy)</t>
-  </si>
-  <si>
-    <t>Monkey D. Luffy (One Piece DXF THE GRANDLINE MEN ONE PIECE FILM GOLD vol.1 Figure Anime Goods Prize Banpresto)</t>
-  </si>
-  <si>
-    <t>Banpresto One Piece MAXIMATIC EL MONO.D.LUFFY I</t>
-  </si>
-  <si>
-    <t>Hobbies y Juguetes, Figuras ONE PIECE STAMPEDE KING OF ARTIST THE MONKEY D LUFFY</t>
-  </si>
-  <si>
-    <t>Hobbies y Juguetes, Figuras ONE PIECE KING OF ARTIST THE MONKEY D LUFFY- II-</t>
-  </si>
-  <si>
-    <t>Dimensiones : 5.5 x 6.5 x 6.3 pulgadas</t>
-  </si>
-  <si>
-    <t>Dimensiones : 6.5 x 7.5 x 6.3 pulgadas</t>
-  </si>
-  <si>
-    <t>One piece</t>
-  </si>
-  <si>
-    <t>9;3</t>
-  </si>
-  <si>
-    <t>10;50</t>
-  </si>
-  <si>
-    <t>7;9</t>
-  </si>
-  <si>
-    <t>9;6</t>
-  </si>
-  <si>
-    <t>8;5</t>
-  </si>
-  <si>
-    <t>5;5</t>
-  </si>
-  <si>
-    <t>Figura mini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +120,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="&quot;Helvetica LT Std&quot;"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="&quot;Helvetica LT Std&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="&quot;Helvetica LT Std&quot;"/>
     </font>
   </fonts>
@@ -218,17 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,29 +451,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -558,25 +500,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>23000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>8</v>
@@ -584,25 +526,25 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
         <v>6</v>
@@ -610,370 +552,29 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>70000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23000</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>23000</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
-        <v>23000</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23000</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
